--- a/data/Aug 2023 MHDR/provincial FSB MSB_monthly.xlsx
+++ b/data/Aug 2023 MHDR/provincial FSB MSB_monthly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PIMPA.SAWULU\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE944F43-7A2C-4EFC-9172-B4E7D17417C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A40B3B9-8BA4-40E0-A436-49E2684CB9FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,7 +424,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -476,10 +476,10 @@
         <v>5205</v>
       </c>
       <c r="F2" s="2">
-        <v>2.6825062272465989</v>
+        <v>2.6753296388304988</v>
       </c>
       <c r="G2" s="2">
-        <v>2.6825062272465989</v>
+        <v>2.6753296388304988</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -499,10 +499,10 @@
         <v>4944</v>
       </c>
       <c r="F3" s="2">
-        <v>2.0185708518368997</v>
+        <v>2.0132876988121602</v>
       </c>
       <c r="G3" s="2">
-        <v>2.6241421073879696</v>
+        <v>2.6172740084558082</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -522,10 +522,10 @@
         <v>4830</v>
       </c>
       <c r="F4" s="2">
-        <v>4.123711340206186</v>
+        <v>4.1067761806981524</v>
       </c>
       <c r="G4" s="2">
-        <v>4.123711340206186</v>
+        <v>4.1067761806981524</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -545,10 +545,10 @@
         <v>4848</v>
       </c>
       <c r="F5" s="2">
-        <v>2.2638402963572752</v>
+        <v>2.2554849292597909</v>
       </c>
       <c r="G5" s="2">
-        <v>3.7044659394937227</v>
+        <v>3.6907935206069302</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -568,10 +568,10 @@
         <v>4302</v>
       </c>
       <c r="F6" s="2">
-        <v>3.0127462340672078</v>
+        <v>2.9960820465545055</v>
       </c>
       <c r="G6" s="2">
-        <v>5.5619930475086905</v>
+        <v>5.5312283936390871</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -591,10 +591,10 @@
         <v>5265</v>
       </c>
       <c r="F7" s="2">
-        <v>2.652017427543095</v>
+        <v>2.6450028339316076</v>
       </c>
       <c r="G7" s="2">
-        <v>2.652017427543095</v>
+        <v>2.6450028339316076</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -614,10 +614,10 @@
         <v>4763</v>
       </c>
       <c r="F8" s="2">
-        <v>2.7219430485762142</v>
+        <v>2.712288754433549</v>
       </c>
       <c r="G8" s="2">
-        <v>3.5594639865996651</v>
+        <v>3.5468391404131028</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -637,10 +637,10 @@
         <v>5207</v>
       </c>
       <c r="F9" s="2">
-        <v>2.2992910519256564</v>
+        <v>2.2887659736791912</v>
       </c>
       <c r="G9" s="2">
-        <v>4.5985821038513128</v>
+        <v>4.5775319473583824</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -660,10 +660,10 @@
         <v>4301</v>
       </c>
       <c r="F10" s="2">
-        <v>1.1611704598235022</v>
+        <v>1.1544677903486493</v>
       </c>
       <c r="G10" s="2">
-        <v>5.8058522991175101</v>
+        <v>5.7723389517432464</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -683,10 +683,10 @@
         <v>5389</v>
       </c>
       <c r="F11" s="2">
-        <v>1.6672841793256763</v>
+        <v>1.6617429837518465</v>
       </c>
       <c r="G11" s="2">
-        <v>3.3345683586513526</v>
+        <v>3.323485967503693</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -706,10 +706,10 @@
         <v>6259</v>
       </c>
       <c r="F12" s="2">
-        <v>1.7543859649122808</v>
+        <v>1.7515923566878981</v>
       </c>
       <c r="G12" s="2">
-        <v>1.594896331738437</v>
+        <v>1.5923566878980893</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -729,10 +729,10 @@
         <v>5895</v>
       </c>
       <c r="F13" s="2">
-        <v>2.0314880650076179</v>
+        <v>2.0222446916076846</v>
       </c>
       <c r="G13" s="2">
-        <v>4.5708481462671404</v>
+        <v>4.5500505561172906</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -752,10 +752,10 @@
         <v>5891</v>
       </c>
       <c r="F14" s="2">
-        <v>2.7086507533434907</v>
+        <v>2.6972353337828725</v>
       </c>
       <c r="G14" s="2">
-        <v>4.232266802099204</v>
+        <v>4.2144302090357382</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -775,10 +775,10 @@
         <v>5985</v>
       </c>
       <c r="F15" s="2">
-        <v>1.8345563709139425</v>
+        <v>1.8263323924954342</v>
       </c>
       <c r="G15" s="2">
-        <v>4.5030020013342229</v>
+        <v>4.4828158724887937</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -798,10 +798,10 @@
         <v>5383</v>
       </c>
       <c r="F16" s="2">
-        <v>3.8860103626943006</v>
+        <v>3.8702543309988942</v>
       </c>
       <c r="G16" s="2">
-        <v>4.0710584752035528</v>
+        <v>4.0545521562845561</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -821,10 +821,10 @@
         <v>7551</v>
       </c>
       <c r="F17" s="2">
-        <v>0.92617094469436356</v>
+        <v>0.92409240924092406</v>
       </c>
       <c r="G17" s="2">
-        <v>2.2492722942577403</v>
+        <v>2.2442244224422443</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -844,10 +844,10 @@
         <v>5993</v>
       </c>
       <c r="F18" s="2">
-        <v>1.9983347210657783</v>
+        <v>1.9903798308177145</v>
       </c>
       <c r="G18" s="2">
-        <v>3.9966694421315565</v>
+        <v>3.980759661635429</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -867,10 +867,10 @@
         <v>6431</v>
       </c>
       <c r="F19" s="2">
-        <v>2.3270245113248529</v>
+        <v>2.3151720944590215</v>
       </c>
       <c r="G19" s="2">
-        <v>5.1194539249146755</v>
+        <v>5.0933786078098473</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -890,10 +890,10 @@
         <v>5287</v>
       </c>
       <c r="F20" s="2">
-        <v>1.8878610534264679</v>
+        <v>1.8800526414739613</v>
       </c>
       <c r="G20" s="2">
-        <v>4.1532943175382293</v>
+        <v>4.136115811242715</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -913,10 +913,10 @@
         <v>6034</v>
       </c>
       <c r="F21" s="2">
-        <v>2.1498263601786012</v>
+        <v>2.1374547846103256</v>
       </c>
       <c r="G21" s="2">
-        <v>5.7879940466346946</v>
+        <v>5.7546859585662613</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -936,10 +936,10 @@
         <v>7482</v>
       </c>
       <c r="F22" s="2">
-        <v>1.8676627534685164</v>
+        <v>1.8646776771443794</v>
       </c>
       <c r="G22" s="2">
-        <v>1.6008537886873</v>
+        <v>1.5982951518380393</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -959,10 +959,10 @@
         <v>6639</v>
       </c>
       <c r="F23" s="2">
-        <v>3.4524166916841788</v>
+        <v>3.4405385190725504</v>
       </c>
       <c r="G23" s="2">
-        <v>3.4524166916841788</v>
+        <v>3.4405385190725504</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -982,10 +982,10 @@
         <v>7194</v>
       </c>
       <c r="F24" s="2">
-        <v>3.3250207813798838</v>
+        <v>3.3167495854063018</v>
       </c>
       <c r="G24" s="2">
-        <v>2.4937655860349128</v>
+        <v>2.4875621890547261</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -1005,10 +1005,10 @@
         <v>7735</v>
       </c>
       <c r="F25" s="2">
-        <v>3.2216494845360821</v>
+        <v>3.2088307020921576</v>
       </c>
       <c r="G25" s="2">
-        <v>3.9948453608247418</v>
+        <v>3.9789500705942755</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -1028,10 +1028,10 @@
         <v>7050</v>
       </c>
       <c r="F26" s="2">
-        <v>4.377912724191499</v>
+        <v>4.3631245601688953</v>
       </c>
       <c r="G26" s="2">
-        <v>3.3893517864708373</v>
+        <v>3.3779028852920479</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -1051,10 +1051,10 @@
         <v>7996</v>
       </c>
       <c r="F27" s="2">
-        <v>1.8724254150543005</v>
+        <v>1.8682276746792876</v>
       </c>
       <c r="G27" s="2">
-        <v>2.2469104980651604</v>
+        <v>2.2418732096151452</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -1074,10 +1074,10 @@
         <v>7422</v>
       </c>
       <c r="F28" s="2">
-        <v>1.7484868863483525</v>
+        <v>1.7447322507046035</v>
       </c>
       <c r="G28" s="2">
-        <v>2.151983860121049</v>
+        <v>2.1473627700979736</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -1097,10 +1097,10 @@
         <v>7568</v>
       </c>
       <c r="F29" s="2">
-        <v>2.6357406431207169</v>
+        <v>2.6243275160740063</v>
       </c>
       <c r="G29" s="2">
-        <v>4.3489720611491824</v>
+        <v>4.3301404015221108</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -1120,10 +1120,10 @@
         <v>7525</v>
       </c>
       <c r="F30" s="2">
-        <v>1.0619938935351123</v>
+        <v>1.0600238505366371</v>
       </c>
       <c r="G30" s="2">
-        <v>1.8584893136864462</v>
+        <v>1.8550417384391149</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -1143,10 +1143,10 @@
         <v>7655</v>
       </c>
       <c r="F31" s="2">
-        <v>1.5651493413329856</v>
+        <v>1.5600624024960998</v>
       </c>
       <c r="G31" s="2">
-        <v>3.2607277944437199</v>
+        <v>3.2501300052002078</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -1166,10 +1166,10 @@
         <v>4830</v>
       </c>
       <c r="F32" s="2">
-        <v>0.62073246430788331</v>
+        <v>0.62047569803516023</v>
       </c>
       <c r="G32" s="2">
-        <v>0.41382164287192219</v>
+        <v>0.41365046535677352</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -1189,10 +1189,10 @@
         <v>4669</v>
       </c>
       <c r="F33" s="2">
-        <v>1.923899102180419</v>
+        <v>1.9226660969878231</v>
       </c>
       <c r="G33" s="2">
-        <v>0.64129970072680631</v>
+        <v>0.64088869899594103</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -1212,10 +1212,10 @@
         <v>4634</v>
       </c>
       <c r="F34" s="2">
-        <v>1.2931034482758621</v>
+        <v>1.2889366272824918</v>
       </c>
       <c r="G34" s="2">
-        <v>3.2327586206896552</v>
+        <v>3.2223415682062302</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -1235,10 +1235,10 @@
         <v>4727</v>
       </c>
       <c r="F35" s="2">
-        <v>0.84548721200591836</v>
+        <v>0.84459459459459463</v>
       </c>
       <c r="G35" s="2">
-        <v>1.056859015007398</v>
+        <v>1.0557432432432432</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -1258,10 +1258,10 @@
         <v>4532</v>
       </c>
       <c r="F36" s="2">
-        <v>1.9819423034573882</v>
+        <v>1.9771528998242531</v>
       </c>
       <c r="G36" s="2">
-        <v>2.4223739264479192</v>
+        <v>2.4165202108963091</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -1281,10 +1281,10 @@
         <v>5158</v>
       </c>
       <c r="F37" s="2">
-        <v>1.7418231081865687</v>
+        <v>1.7394665635871667</v>
       </c>
       <c r="G37" s="2">
-        <v>1.3547513063673311</v>
+        <v>1.3529184383455741</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -1304,10 +1304,10 @@
         <v>4902</v>
       </c>
       <c r="F38" s="2">
-        <v>2.2389578668837777</v>
+        <v>2.2348638764729785</v>
       </c>
       <c r="G38" s="2">
-        <v>1.8318746183594545</v>
+        <v>1.8285249898415277</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -1327,10 +1327,10 @@
         <v>5205</v>
       </c>
       <c r="F39" s="2">
-        <v>2.6825062272465989</v>
+        <v>2.6763525138596824</v>
       </c>
       <c r="G39" s="2">
-        <v>2.2992910519256564</v>
+        <v>2.2940164404511569</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -1350,10 +1350,10 @@
         <v>4914</v>
       </c>
       <c r="F40" s="2">
-        <v>0.4068348250610252</v>
+        <v>0.4065040650406504</v>
       </c>
       <c r="G40" s="2">
-        <v>0.81366965012205039</v>
+        <v>0.81300813008130079</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -1373,10 +1373,10 @@
         <v>5084</v>
       </c>
       <c r="F41" s="2">
-        <v>1.7671313567641862</v>
+        <v>1.7636684303350969</v>
       </c>
       <c r="G41" s="2">
-        <v>1.9634792852935403</v>
+        <v>1.9596315892612186</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -1396,10 +1396,10 @@
         <v>7030</v>
       </c>
       <c r="F42" s="2">
-        <v>1.5622780854992189</v>
+        <v>1.5547703180212014</v>
       </c>
       <c r="G42" s="2">
-        <v>4.8288595369975855</v>
+        <v>4.8056537102473493</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -1419,10 +1419,10 @@
         <v>7193</v>
       </c>
       <c r="F43" s="2">
-        <v>3.8775792826478326</v>
+        <v>3.8519741367450822</v>
       </c>
       <c r="G43" s="2">
-        <v>6.6472787702534273</v>
+        <v>6.6033842344201403</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -1442,10 +1442,10 @@
         <v>6334</v>
       </c>
       <c r="F44" s="2">
-        <v>3.6180588327827592</v>
+        <v>3.5708740878745533</v>
       </c>
       <c r="G44" s="2">
-        <v>13.213780084945729</v>
+        <v>13.04145319049837</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -1465,10 +1465,10 @@
         <v>6611</v>
       </c>
       <c r="F45" s="2">
-        <v>2.2638092363416842</v>
+        <v>2.2445009726170881</v>
       </c>
       <c r="G45" s="2">
-        <v>8.6024750980984006</v>
+        <v>8.5291036959449347</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -1488,10 +1488,10 @@
         <v>6601.5</v>
       </c>
       <c r="F46" s="2">
-        <v>6.0227358277497558</v>
+        <v>5.9545962039449201</v>
       </c>
       <c r="G46" s="2">
-        <v>11.443198072724535</v>
+        <v>11.313732787495349</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -1511,10 +1511,10 @@
         <v>7911</v>
       </c>
       <c r="F47" s="2">
-        <v>2.0184180648416805</v>
+        <v>2.0072763768661401</v>
       </c>
       <c r="G47" s="2">
-        <v>5.5506496783146213</v>
+        <v>5.5200100363818843</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -1534,10 +1534,10 @@
         <v>7746</v>
       </c>
       <c r="F48" s="2">
-        <v>2.1898750483060669</v>
+        <v>2.1669853409815172</v>
       </c>
       <c r="G48" s="2">
-        <v>10.562926703593972</v>
+        <v>10.452517527087316</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -1557,10 +1557,10 @@
         <v>7701</v>
       </c>
       <c r="F49" s="2">
-        <v>3.8804811796662788</v>
+        <v>3.8545547989207249</v>
       </c>
       <c r="G49" s="2">
-        <v>6.7261673780882161</v>
+        <v>6.6812283181292562</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -1580,10 +1580,10 @@
         <v>7778</v>
       </c>
       <c r="F50" s="2">
-        <v>3.4593209481101859</v>
+        <v>3.4346775219437728</v>
       </c>
       <c r="G50" s="2">
-        <v>7.1748878923766819</v>
+        <v>7.1237756010685658</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -1603,10 +1603,10 @@
         <v>6826</v>
       </c>
       <c r="F51" s="2">
-        <v>3.6491023208290758</v>
+        <v>3.6158518947063931</v>
       </c>
       <c r="G51" s="2">
-        <v>9.1957378484892711</v>
+        <v>9.1119467746601099</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -1626,10 +1626,10 @@
         <v>2512</v>
       </c>
       <c r="F52" s="2">
-        <v>0.39793076004775169</v>
+        <v>0.39745627980922099</v>
       </c>
       <c r="G52" s="2">
-        <v>1.193792280143255</v>
+        <v>1.1923688394276628</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -1649,10 +1649,10 @@
         <v>2413</v>
       </c>
       <c r="F53" s="2">
-        <v>1.2417218543046358</v>
+        <v>1.2401818933443571</v>
       </c>
       <c r="G53" s="2">
-        <v>1.2417218543046358</v>
+        <v>1.2401818933443571</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -1672,10 +1672,10 @@
         <v>2400</v>
       </c>
       <c r="F54" s="2">
-        <v>2.4937655860349128</v>
+        <v>2.4885939444214022</v>
       </c>
       <c r="G54" s="2">
-        <v>2.0781379883624274</v>
+        <v>2.0738282870178351</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -1695,10 +1695,10 @@
         <v>2498</v>
       </c>
       <c r="F55" s="2">
-        <v>2.3961661341853033</v>
+        <v>2.3932987634623055</v>
       </c>
       <c r="G55" s="2">
-        <v>1.1980830670926517</v>
+        <v>1.1966493817311528</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -1718,10 +1718,10 @@
         <v>2105</v>
       </c>
       <c r="F56" s="2">
-        <v>4.257332071901609</v>
+        <v>4.2352941176470589</v>
       </c>
       <c r="G56" s="2">
-        <v>5.2034058656575217</v>
+        <v>5.1764705882352944</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -1741,10 +1741,10 @@
         <v>2457</v>
       </c>
       <c r="F57" s="2">
-        <v>2.4360535931790497</v>
+        <v>2.4271844660194173</v>
       </c>
       <c r="G57" s="2">
-        <v>3.6540803897685747</v>
+        <v>3.6407766990291264</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
@@ -1764,10 +1764,10 @@
         <v>2404</v>
       </c>
       <c r="F58" s="2">
-        <v>3.7297969332780774</v>
+        <v>3.7174721189591078</v>
       </c>
       <c r="G58" s="2">
-        <v>3.315375051802735</v>
+        <v>3.3044196612969849</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
@@ -1787,10 +1787,10 @@
         <v>2553</v>
       </c>
       <c r="F59" s="2">
-        <v>3.1237797735259667</v>
+        <v>3.1164783794312427</v>
       </c>
       <c r="G59" s="2">
-        <v>2.3428348301444748</v>
+        <v>2.337358784573432</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -1810,10 +1810,10 @@
         <v>2504</v>
       </c>
       <c r="F60" s="2">
-        <v>2.3904382470119518</v>
+        <v>2.3866348448687353</v>
       </c>
       <c r="G60" s="2">
-        <v>1.5936254980079683</v>
+        <v>1.5910898965791569</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
@@ -1833,10 +1833,10 @@
         <v>2543</v>
       </c>
       <c r="F61" s="2">
-        <v>3.9169604386995696</v>
+        <v>3.9032006245120998</v>
       </c>
       <c r="G61" s="2">
-        <v>3.5252643948296125</v>
+        <v>3.5128805620608898</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
@@ -1856,10 +1856,10 @@
         <v>3042</v>
       </c>
       <c r="F62" s="2">
-        <v>3.6030134294136915</v>
+        <v>3.5865666775350507</v>
       </c>
       <c r="G62" s="2">
-        <v>4.5856534556174253</v>
+        <v>4.5647212259537007</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
@@ -1879,10 +1879,10 @@
         <v>2936</v>
       </c>
       <c r="F63" s="2">
-        <v>3.7326094333220223</v>
+        <v>3.7199864727764629</v>
       </c>
       <c r="G63" s="2">
-        <v>3.3932813030200202</v>
+        <v>3.3818058843422385</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
@@ -1902,10 +1902,10 @@
         <v>2899</v>
       </c>
       <c r="F64" s="2">
-        <v>5.4888507718696395</v>
+        <v>5.4495912806539506</v>
       </c>
       <c r="G64" s="2">
-        <v>7.2041166380789026</v>
+        <v>7.1525885558583102</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
@@ -1925,10 +1925,10 @@
         <v>2895</v>
       </c>
       <c r="F65" s="2">
-        <v>3.4423407917383821</v>
+        <v>3.4270047978067169</v>
       </c>
       <c r="G65" s="2">
-        <v>4.4750430292598962</v>
+        <v>4.4551062371487324</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
@@ -1948,10 +1948,10 @@
         <v>2766</v>
       </c>
       <c r="F66" s="2">
-        <v>5.7512580877066863</v>
+        <v>5.7040998217468806</v>
       </c>
       <c r="G66" s="2">
-        <v>8.2674335010783597</v>
+        <v>8.1996434937611404</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
@@ -1971,10 +1971,10 @@
         <v>3256</v>
       </c>
       <c r="F67" s="2">
-        <v>5.4978619425778863</v>
+        <v>5.4694621695533279</v>
       </c>
       <c r="G67" s="2">
-        <v>5.1924251679902262</v>
+        <v>5.1656031601336982</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
@@ -1994,10 +1994,10 @@
         <v>2621</v>
       </c>
       <c r="F68" s="2">
-        <v>4.1793313069908811</v>
+        <v>4.1556479032867397</v>
       </c>
       <c r="G68" s="2">
-        <v>5.6990881458966562</v>
+        <v>5.6667925953910085</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
@@ -2017,10 +2017,10 @@
         <v>2594</v>
       </c>
       <c r="F69" s="2">
-        <v>6.5109153581003447</v>
+        <v>6.4860740175505534</v>
       </c>
       <c r="G69" s="2">
-        <v>3.8299502106472616</v>
+        <v>3.8153376573826785</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
@@ -2040,10 +2040,10 @@
         <v>2480</v>
       </c>
       <c r="F70" s="2">
-        <v>2.8146361077603537</v>
+        <v>2.8056112224448899</v>
       </c>
       <c r="G70" s="2">
-        <v>3.2167269802975471</v>
+        <v>3.2064128256513027</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
@@ -2063,10 +2063,10 @@
         <v>3007</v>
       </c>
       <c r="F71" s="2">
-        <v>5.2927555408534568</v>
+        <v>5.2493438320209975</v>
       </c>
       <c r="G71" s="2">
-        <v>8.2699305325835262</v>
+        <v>8.2020997375328086</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
@@ -2086,10 +2086,10 @@
         <v>4457</v>
       </c>
       <c r="F72" s="2">
-        <v>0.89665994171710373</v>
+        <v>0.89625812233923374</v>
       </c>
       <c r="G72" s="2">
-        <v>0.44832997085855186</v>
+        <v>0.44812906116961687</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
@@ -2109,10 +2109,10 @@
         <v>4424</v>
       </c>
       <c r="F73" s="2">
-        <v>5.172026085001125</v>
+        <v>5.1604218083912947</v>
       </c>
       <c r="G73" s="2">
-        <v>2.2487069934787498</v>
+        <v>2.2436616558223021</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
@@ -2132,10 +2132,10 @@
         <v>4558</v>
       </c>
       <c r="F74" s="2">
-        <v>5.2378873854212129</v>
+        <v>5.2015604681404426</v>
       </c>
       <c r="G74" s="2">
-        <v>6.9838498472282842</v>
+        <v>6.9354139575205895</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
@@ -2155,10 +2155,10 @@
         <v>4636</v>
       </c>
       <c r="F75" s="2">
-        <v>5.363655867839519</v>
+        <v>5.3339022829101772</v>
       </c>
       <c r="G75" s="2">
-        <v>5.5782021025531003</v>
+        <v>5.5472583742265842</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
@@ -2178,10 +2178,10 @@
         <v>4354</v>
       </c>
       <c r="F76" s="2">
-        <v>6.6164727355692445</v>
+        <v>6.5551537070524413</v>
       </c>
       <c r="G76" s="2">
-        <v>9.3543235227013461</v>
+        <v>9.267631103074141</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
@@ -2201,10 +2201,10 @@
         <v>4802</v>
       </c>
       <c r="F77" s="2">
-        <v>5.385252692626346</v>
+        <v>5.3486936844270732</v>
       </c>
       <c r="G77" s="2">
-        <v>6.8351284175642091</v>
+        <v>6.7887265994651305</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
@@ -2224,10 +2224,10 @@
         <v>4606</v>
       </c>
       <c r="F78" s="2">
-        <v>5.3984020729863955</v>
+        <v>5.3705692803437168</v>
       </c>
       <c r="G78" s="2">
-        <v>5.182465990066941</v>
+        <v>5.1557465091299672</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
@@ -2247,10 +2247,10 @@
         <v>4754</v>
       </c>
       <c r="F79" s="2">
-        <v>3.9807249109574689</v>
+        <v>3.9682539682539679</v>
       </c>
       <c r="G79" s="2">
-        <v>3.1426775612822127</v>
+        <v>3.132832080200501</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
@@ -2270,10 +2270,10 @@
         <v>4524</v>
       </c>
       <c r="F80" s="2">
-        <v>3.3046926635822871</v>
+        <v>3.2873109796186721</v>
       </c>
       <c r="G80" s="2">
-        <v>5.2875082617316584</v>
+        <v>5.2596975673898756</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
@@ -2293,10 +2293,10 @@
         <v>4238</v>
       </c>
       <c r="F81" s="2">
-        <v>6.0975609756097562</v>
+        <v>6.062019118675682</v>
       </c>
       <c r="G81" s="2">
-        <v>5.8630393996247649</v>
+        <v>5.8288645371881556</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
@@ -2316,10 +2316,10 @@
         <v>5991</v>
       </c>
       <c r="F82" s="2">
-        <v>3.4930139720558881</v>
+        <v>3.484320557491289</v>
       </c>
       <c r="G82" s="2">
-        <v>2.4950099800399204</v>
+        <v>2.4888003982080633</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
@@ -2339,10 +2339,10 @@
         <v>5707</v>
       </c>
       <c r="F83" s="2">
-        <v>4.8823016564952049</v>
+        <v>4.8627995831886066</v>
       </c>
       <c r="G83" s="2">
-        <v>4.0104620749782045</v>
+        <v>3.9944425147620697</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
@@ -2362,10 +2362,10 @@
         <v>6101</v>
       </c>
       <c r="F84" s="2">
-        <v>4.7308319738988578</v>
+        <v>4.7047371836469827</v>
       </c>
       <c r="G84" s="2">
-        <v>5.5464926590538335</v>
+        <v>5.5158987670343933</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
@@ -2385,10 +2385,10 @@
         <v>6319</v>
       </c>
       <c r="F85" s="2">
-        <v>1.4222503160556259</v>
+        <v>1.4186633039092056</v>
       </c>
       <c r="G85" s="2">
-        <v>2.5284450063211126</v>
+        <v>2.5220680958385877</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
@@ -2408,10 +2408,10 @@
         <v>5406</v>
       </c>
       <c r="F86" s="2">
-        <v>4.6032038298655857</v>
+        <v>4.5762401610836543</v>
       </c>
       <c r="G86" s="2">
-        <v>5.8921009022279502</v>
+        <v>5.8575874061870774</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
@@ -2431,10 +2431,10 @@
         <v>6235</v>
       </c>
       <c r="F87" s="2">
-        <v>3.5160620105481861</v>
+        <v>3.5003977724741446</v>
       </c>
       <c r="G87" s="2">
-        <v>4.474988013424964</v>
+        <v>4.4550517104216389</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
@@ -2454,10 +2454,10 @@
         <v>5554</v>
       </c>
       <c r="F88" s="2">
-        <v>3.7668161434977581</v>
+        <v>3.7479921470640725</v>
       </c>
       <c r="G88" s="2">
-        <v>5.0224215246636774</v>
+        <v>4.9973228627520978</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
@@ -2477,10 +2477,10 @@
         <v>6143</v>
       </c>
       <c r="F89" s="2">
-        <v>2.597824322130216</v>
+        <v>2.5889967637540452</v>
       </c>
       <c r="G89" s="2">
-        <v>3.4096444227959082</v>
+        <v>3.3980582524271843</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
@@ -2500,10 +2500,10 @@
         <v>5866</v>
       </c>
       <c r="F90" s="2">
-        <v>1.0217983651226157</v>
+        <v>1.0186757215619693</v>
       </c>
       <c r="G90" s="2">
-        <v>3.0653950953678475</v>
+        <v>3.0560271646859083</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
@@ -2523,10 +2523,10 @@
         <v>6856</v>
       </c>
       <c r="F91" s="2">
-        <v>2.0378457059679769</v>
+        <v>2.0331106593087425</v>
       </c>
       <c r="G91" s="2">
-        <v>2.3289665211062593</v>
+        <v>2.3235550392099915</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
@@ -2546,10 +2546,10 @@
         <v>3022</v>
       </c>
       <c r="F92" s="2">
-        <v>0.66137566137566139</v>
+        <v>0.66115702479338845</v>
       </c>
       <c r="G92" s="2">
-        <v>0.3306878306878307</v>
+        <v>0.33057851239669422</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
@@ -2569,10 +2569,10 @@
         <v>2732</v>
       </c>
       <c r="F93" s="2">
-        <v>2.1913805697589481</v>
+        <v>2.190580503833516</v>
       </c>
       <c r="G93" s="2">
-        <v>0.36523009495982467</v>
+        <v>0.36509675063891933</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
@@ -2592,10 +2592,10 @@
         <v>2780</v>
       </c>
       <c r="F94" s="2">
-        <v>5.3667262969588547</v>
+        <v>5.355230274901821</v>
       </c>
       <c r="G94" s="2">
-        <v>2.1466905187835419</v>
+        <v>2.1420921099607284</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
@@ -2615,10 +2615,10 @@
         <v>2847</v>
       </c>
       <c r="F95" s="2">
-        <v>4.8933939182104158</v>
+        <v>4.8763497039359107</v>
       </c>
       <c r="G95" s="2">
-        <v>3.4952813701502969</v>
+        <v>3.4831069313827934</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
@@ -2638,10 +2638,10 @@
         <v>2591</v>
       </c>
       <c r="F96" s="2">
-        <v>7.2796934865900385</v>
+        <v>7.2436141822340838</v>
       </c>
       <c r="G96" s="2">
-        <v>4.9808429118773949</v>
+        <v>4.9561570720548982</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
@@ -2661,10 +2661,10 @@
         <v>2957</v>
       </c>
       <c r="F97" s="2">
-        <v>2.3616734143049936</v>
+        <v>2.3545240497813653</v>
       </c>
       <c r="G97" s="2">
-        <v>3.0364372469635628</v>
+        <v>3.0272452068617555</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
@@ -2684,10 +2684,10 @@
         <v>2916</v>
       </c>
       <c r="F98" s="2">
-        <v>2.3947998631542937</v>
+        <v>2.3882633913340157</v>
       </c>
       <c r="G98" s="2">
-        <v>2.7369141293191923</v>
+        <v>2.7294438758103037</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
@@ -2707,10 +2707,10 @@
         <v>3054</v>
       </c>
       <c r="F99" s="2">
-        <v>2.6126714565643372</v>
+        <v>2.6075619295958279</v>
       </c>
       <c r="G99" s="2">
-        <v>1.9595035924232529</v>
+        <v>1.955671447196871</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
@@ -2730,10 +2730,10 @@
         <v>2881</v>
       </c>
       <c r="F100" s="2">
-        <v>2.7691242644513676</v>
+        <v>2.7595722662987234</v>
       </c>
       <c r="G100" s="2">
-        <v>3.461405330564209</v>
+        <v>3.4494653328734048</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
@@ -2753,10 +2753,10 @@
         <v>3364</v>
       </c>
       <c r="F101" s="2">
-        <v>3.8495706248149246</v>
+        <v>3.8302887448438421</v>
       </c>
       <c r="G101" s="2">
-        <v>5.034053893988748</v>
+        <v>5.0088391278727169</v>
       </c>
     </row>
   </sheetData>
